--- a/Bin/Server/DataConfig/Excel/InitProperty.xlsx
+++ b/Bin/Server/DataConfig/Excel/InitProperty.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -27,8 +27,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="InitProperty" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="InitProperty" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\InitProperty.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -451,12 +451,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -464,8 +464,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,6 +474,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -671,13 +677,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -940,25 +949,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -978,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +1137,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1144,7 +1153,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1169,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1185,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1201,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1208,7 +1217,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -1224,7 +1233,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -1240,7 +1249,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -1256,7 +1265,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1281,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
@@ -1288,7 +1297,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -1304,7 +1313,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -1320,7 +1329,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1336,7 +1345,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>45</v>
       </c>
@@ -1352,7 +1361,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>47</v>
       </c>
@@ -1368,7 +1377,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
@@ -1384,7 +1393,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>51</v>
       </c>
@@ -1400,7 +1409,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>53</v>
       </c>
@@ -1416,7 +1425,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
@@ -1432,7 +1441,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>57</v>
       </c>
@@ -1448,7 +1457,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>59</v>
       </c>
@@ -1464,7 +1473,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
@@ -1480,7 +1489,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
@@ -1496,7 +1505,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>65</v>
       </c>
@@ -1512,7 +1521,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>67</v>
       </c>
@@ -1528,7 +1537,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>69</v>
       </c>
@@ -1544,7 +1553,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -1560,7 +1569,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -1576,7 +1585,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>75</v>
       </c>
@@ -1592,7 +1601,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>77</v>
       </c>
@@ -1608,7 +1617,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>79</v>
       </c>
@@ -1624,7 +1633,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>81</v>
       </c>
@@ -1640,7 +1649,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>83</v>
       </c>
@@ -1656,7 +1665,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>85</v>
       </c>
@@ -1672,7 +1681,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>87</v>
       </c>
@@ -1688,7 +1697,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>89</v>
       </c>
@@ -1704,7 +1713,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
         <v>91</v>
       </c>
@@ -1720,7 +1729,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>93</v>
       </c>
@@ -1736,7 +1745,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>95</v>
       </c>
@@ -1752,7 +1761,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>97</v>
       </c>
@@ -1768,7 +1777,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
         <v>99</v>
       </c>
@@ -1784,7 +1793,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>101</v>
       </c>
@@ -1800,7 +1809,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>103</v>
       </c>
@@ -1816,7 +1825,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>105</v>
       </c>
@@ -1832,7 +1841,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>107</v>
       </c>
@@ -1848,7 +1857,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>109</v>
       </c>
@@ -1864,7 +1873,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>111</v>
       </c>
@@ -1880,7 +1889,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
         <v>113</v>
       </c>
@@ -1896,7 +1905,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>115</v>
       </c>
@@ -1912,7 +1921,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
         <v>117</v>
       </c>
@@ -1928,7 +1937,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
         <v>119</v>
       </c>
@@ -1944,7 +1953,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
         <v>121</v>
       </c>
@@ -1960,7 +1969,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
         <v>123</v>
       </c>
@@ -1976,7 +1985,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>125</v>
       </c>
@@ -1992,7 +2001,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>127</v>
       </c>
@@ -2008,7 +2017,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>129</v>
       </c>
@@ -2024,7 +2033,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
         <v>131</v>
       </c>
@@ -2040,7 +2049,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>133</v>
       </c>
@@ -2056,7 +2065,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
         <v>135</v>
       </c>
@@ -2073,9 +2082,10 @@
       <c r="F68" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
